--- a/backend/templates/RECOVA_CREDIT_CARD_Import_Template.xlsx
+++ b/backend/templates/RECOVA_CREDIT_CARD_Import_Template.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,16 +29,16 @@
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00366092"/>
-      <sz val="14"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Arial"/>
-      <i val="1"/>
-      <sz val="10"/>
+      <color rgb="00666666"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00FF0000"/>
+      <color rgb="00CC0000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -46,10 +46,6 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,20 +83,18 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -466,77 +460,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="23" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="27" customWidth="1" min="15" max="15"/>
-    <col width="29" customWidth="1" min="16" max="16"/>
-    <col width="29" customWidth="1" min="17" max="17"/>
-    <col width="29" customWidth="1" min="18" max="18"/>
-    <col width="33" customWidth="1" min="19" max="19"/>
-    <col width="19" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
     <col width="12" customWidth="1" min="22" max="22"/>
     <col width="12" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
-    <col width="17" customWidth="1" min="25" max="25"/>
-    <col width="15" customWidth="1" min="26" max="26"/>
-    <col width="13" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="18" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="18" customWidth="1" min="31" max="31"/>
-    <col width="21" customWidth="1" min="32" max="32"/>
-    <col width="17" customWidth="1" min="33" max="33"/>
-    <col width="30" customWidth="1" min="34" max="34"/>
-    <col width="30" customWidth="1" min="35" max="35"/>
-    <col width="18" customWidth="1" min="36" max="36"/>
-    <col width="22" customWidth="1" min="37" max="37"/>
-    <col width="17" customWidth="1" min="38" max="38"/>
-    <col width="30" customWidth="1" min="39" max="39"/>
-    <col width="30" customWidth="1" min="40" max="40"/>
-    <col width="21" customWidth="1" min="41" max="41"/>
-    <col width="18" customWidth="1" min="42" max="42"/>
-    <col width="27" customWidth="1" min="43" max="43"/>
-    <col width="13" customWidth="1" min="44" max="44"/>
-    <col width="16" customWidth="1" min="45" max="45"/>
-    <col width="16" customWidth="1" min="46" max="46"/>
+    <col width="12" customWidth="1" min="25" max="25"/>
+    <col width="12" customWidth="1" min="26" max="26"/>
+    <col width="12" customWidth="1" min="27" max="27"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="30" max="30"/>
+    <col width="12" customWidth="1" min="31" max="31"/>
+    <col width="12" customWidth="1" min="32" max="32"/>
+    <col width="12" customWidth="1" min="33" max="33"/>
+    <col width="12" customWidth="1" min="34" max="34"/>
+    <col width="12" customWidth="1" min="35" max="35"/>
+    <col width="12" customWidth="1" min="36" max="36"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="12" customWidth="1" min="39" max="39"/>
+    <col width="12" customWidth="1" min="40" max="40"/>
+    <col width="12" customWidth="1" min="41" max="41"/>
+    <col width="12" customWidth="1" min="42" max="42"/>
+    <col width="12" customWidth="1" min="43" max="43"/>
+    <col width="12" customWidth="1" min="44" max="44"/>
+    <col width="12" customWidth="1" min="45" max="45"/>
+    <col width="12" customWidth="1" min="46" max="46"/>
     <col width="12" customWidth="1" min="47" max="47"/>
-    <col width="17" customWidth="1" min="48" max="48"/>
-    <col width="14" customWidth="1" min="49" max="49"/>
-    <col width="17" customWidth="1" min="50" max="50"/>
-    <col width="27" customWidth="1" min="51" max="51"/>
-    <col width="26" customWidth="1" min="52" max="52"/>
-    <col width="20" customWidth="1" min="53" max="53"/>
-    <col width="18" customWidth="1" min="54" max="54"/>
-    <col width="22" customWidth="1" min="55" max="55"/>
-    <col width="16" customWidth="1" min="56" max="56"/>
-    <col width="18" customWidth="1" min="57" max="57"/>
-    <col width="15" customWidth="1" min="58" max="58"/>
-    <col width="18" customWidth="1" min="59" max="59"/>
-    <col width="23" customWidth="1" min="60" max="60"/>
-    <col width="27" customWidth="1" min="61" max="61"/>
-    <col width="27" customWidth="1" min="62" max="62"/>
-    <col width="27" customWidth="1" min="63" max="63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -549,36 +528,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Credit Card defaulter accounts template with bank information and all customer/card-specific fields</t>
+          <t>Import Template for Credit Card Operations</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Instructions: Fill in the data starting from row 6. Do not modify the headers in row 5.</t>
+          <t>Important: client_code must match the selected client. Fill all required fields marked with *</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Bank Name</t>
+          <t>Client Code *</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Operation Name</t>
+          <t>Contract Number *</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Client Name</t>
+          <t>Client Name *</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Nic</t>
+          <t>Nic *</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -603,289 +582,209 @@
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Contract Number</t>
+          <t>Granted Amount</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Granted Amount</t>
+          <t>Facility Granted Date</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Facility Granted Date</t>
+          <t>Facility End Date</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>Facility End Date</t>
+          <t>Monthly Rental Payment With Vat</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
+          <t>Last Payment Date</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>Last Payment Amount</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
           <t>Designation</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>Work Place Name</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>Work Place Address</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>Work Place Contact Number 1</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>Work Place Contact Number 2</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>Work Place Contact Number 3</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>Monthly Rental Payment With Vat</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>Last Payment Date</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
-        <is>
-          <t>Last Payment Amount</t>
-        </is>
-      </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Due Date</t>
+          <t>Guarantor 1 Name</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
+          <t>Guarantor 1 Address</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 1 Nic</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 1 Contact Number 1</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 1 Contact Number 2</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 2 Name</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 2 Address</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 2 Nic</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 2 Contact Number 1</t>
+        </is>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>Guarantor 2 Contact Number 2</t>
+        </is>
+      </c>
+      <c r="AF5" s="4" t="inlineStr">
+        <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="AG5" s="4" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="AH5" s="4" t="inlineStr">
         <is>
           <t>Branch Name</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AI5" s="4" t="inlineStr">
         <is>
           <t>District Name</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr">
+      <c r="AJ5" s="4" t="inlineStr">
         <is>
           <t>Postal Town</t>
         </is>
       </c>
-      <c r="AB5" s="4" t="inlineStr">
+      <c r="AK5" s="4" t="inlineStr">
         <is>
           <t>Days In Arrears</t>
         </is>
       </c>
-      <c r="AC5" s="4" t="inlineStr">
+      <c r="AL5" s="4" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="AD5" s="4" t="inlineStr">
+      <c r="AM5" s="4" t="inlineStr">
         <is>
           <t>Payment Assumption</t>
         </is>
       </c>
-      <c r="AE5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 1 Name</t>
-        </is>
-      </c>
-      <c r="AF5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 1 Address</t>
-        </is>
-      </c>
-      <c r="AG5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 1 Nic</t>
-        </is>
-      </c>
-      <c r="AH5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 1 Contact Number 1</t>
-        </is>
-      </c>
-      <c r="AI5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 1 Contact Number 2</t>
-        </is>
-      </c>
-      <c r="AJ5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 2 Name</t>
-        </is>
-      </c>
-      <c r="AK5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 2 Address</t>
-        </is>
-      </c>
-      <c r="AL5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 2 Nic</t>
-        </is>
-      </c>
-      <c r="AM5" s="4" t="inlineStr">
-        <is>
-          <t>Guarantor 2 Contact Number 1</t>
-        </is>
-      </c>
       <c r="AN5" s="4" t="inlineStr">
         <is>
-          <t>Guarantor 2 Contact Number 2</t>
+          <t>Card Product Type</t>
         </is>
       </c>
       <c r="AO5" s="4" t="inlineStr">
         <is>
-          <t>Card Product Type</t>
+          <t>Card Number</t>
         </is>
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
-          <t>Card Number</t>
+          <t>Account Number</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="inlineStr">
         <is>
-          <t>Supplementary Card Number</t>
+          <t>Credit Limit</t>
         </is>
       </c>
       <c r="AR5" s="4" t="inlineStr">
         <is>
-          <t>Card Status</t>
+          <t>Capital Balance</t>
         </is>
       </c>
       <c r="AS5" s="4" t="inlineStr">
         <is>
-          <t>Account Number</t>
+          <t>Interest Over Due Balance</t>
         </is>
       </c>
       <c r="AT5" s="4" t="inlineStr">
         <is>
-          <t>Account Status</t>
+          <t>Total Outstanding Amount</t>
         </is>
       </c>
       <c r="AU5" s="4" t="inlineStr">
         <is>
-          <t>Segment</t>
-        </is>
-      </c>
-      <c r="AV5" s="4" t="inlineStr">
-        <is>
-          <t>Bill Cycle Code</t>
-        </is>
-      </c>
-      <c r="AW5" s="4" t="inlineStr">
-        <is>
-          <t>Credit Limit</t>
-        </is>
-      </c>
-      <c r="AX5" s="4" t="inlineStr">
-        <is>
-          <t>Capital Balance</t>
-        </is>
-      </c>
-      <c r="AY5" s="4" t="inlineStr">
-        <is>
-          <t>Interest Over Due Balance</t>
-        </is>
-      </c>
-      <c r="AZ5" s="4" t="inlineStr">
-        <is>
-          <t>Total Outstanding Amount</t>
-        </is>
-      </c>
-      <c r="BA5" s="4" t="inlineStr">
-        <is>
           <t>Minimum Due Amount</t>
-        </is>
-      </c>
-      <c r="BB5" s="4" t="inlineStr">
-        <is>
-          <t>Card Issued Date</t>
-        </is>
-      </c>
-      <c r="BC5" s="4" t="inlineStr">
-        <is>
-          <t>Facility Closed Date</t>
-        </is>
-      </c>
-      <c r="BD5" s="4" t="inlineStr">
-        <is>
-          <t>Statement Date</t>
-        </is>
-      </c>
-      <c r="BE5" s="4" t="inlineStr">
-        <is>
-          <t>Payment Due Date</t>
-        </is>
-      </c>
-      <c r="BF5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Name</t>
-        </is>
-      </c>
-      <c r="BG5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Address</t>
-        </is>
-      </c>
-      <c r="BH5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Relationship</t>
-        </is>
-      </c>
-      <c r="BI5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Contact Number 1</t>
-        </is>
-      </c>
-      <c r="BJ5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Contact Number 2</t>
-        </is>
-      </c>
-      <c r="BK5" s="4" t="inlineStr">
-        <is>
-          <t>Relative Contact Number 3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Commercial Bank</t>
+          <t>SAMPBANK</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Credit Cards</t>
+          <t>CC001234567</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -900,7 +799,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>123 Main Street, Colombo 03</t>
+          <t>123 Main St, Colombo 03</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
@@ -915,269 +814,201 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>0779876543</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>CC001234567</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="n">
+          <t>0774567890</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>500000</v>
       </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>2028-01-15</t>
-        </is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>25000</v>
       </c>
       <c r="M6" s="5" t="inlineStr">
         <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>ABC Company</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>456 Business Ave, Colombo</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>0112334455</t>
-        </is>
-      </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>0112334456</t>
-        </is>
-      </c>
-      <c r="R6" s="5" t="inlineStr"/>
-      <c r="S6" s="5" t="n">
+          <t>ABC Company Ltd</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>456 Business St, Colombo 02</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>0112223333</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>0114445555</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>0776667777</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>789 Family St, Dehiwala</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>234567890V</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>0711111111</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>0112222222</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>321 Friend St, Nugegoda</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>345678901V</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>0722222222</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>0113333333</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Colombo Central</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="5" t="inlineStr">
+        <is>
+          <t>Regular customer with good payment history</t>
+        </is>
+      </c>
+      <c r="AM6" s="5" t="inlineStr">
+        <is>
+          <t>Monthly payment expected</t>
+        </is>
+      </c>
+      <c r="AN6" s="5" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="AO6" s="5" t="inlineStr">
+        <is>
+          <t>****1234</t>
+        </is>
+      </c>
+      <c r="AP6" s="5" t="inlineStr">
+        <is>
+          <t>ACC12345678</t>
+        </is>
+      </c>
+      <c r="AQ6" s="5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AR6" s="5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="AS6" s="5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AT6" s="5" t="n">
+        <v>140000</v>
+      </c>
+      <c r="AU6" s="5" t="n">
         <v>25000</v>
       </c>
-      <c r="T6" s="5" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="V6" s="5" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>Colombo</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
-        <is>
-          <t>Western</t>
-        </is>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
-        <is>
-          <t>Colombo Central</t>
-        </is>
-      </c>
-      <c r="Z6" s="5" t="inlineStr">
-        <is>
-          <t>Colombo</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="inlineStr">
-        <is>
-          <t>Colombo 03</t>
-        </is>
-      </c>
-      <c r="AB6" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" s="5" t="inlineStr">
-        <is>
-          <t>Regular customer</t>
-        </is>
-      </c>
-      <c r="AD6" s="5" t="inlineStr">
-        <is>
-          <t>Monthly payments</t>
-        </is>
-      </c>
-      <c r="AE6" s="5" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="AF6" s="5" t="inlineStr">
-        <is>
-          <t>789 Oak Road, Kandy</t>
-        </is>
-      </c>
-      <c r="AG6" s="5" t="inlineStr">
-        <is>
-          <t>987654321V</t>
-        </is>
-      </c>
-      <c r="AH6" s="5" t="inlineStr">
-        <is>
-          <t>0712345678</t>
-        </is>
-      </c>
-      <c r="AI6" s="5" t="inlineStr">
-        <is>
-          <t>0112233445</t>
-        </is>
-      </c>
-      <c r="AJ6" s="5" t="inlineStr">
-        <is>
-          <t>Bob Smith</t>
-        </is>
-      </c>
-      <c r="AK6" s="5" t="inlineStr">
-        <is>
-          <t>321 Pine St, Galle</t>
-        </is>
-      </c>
-      <c r="AL6" s="5" t="inlineStr">
-        <is>
-          <t>456789123V</t>
-        </is>
-      </c>
-      <c r="AM6" s="5" t="inlineStr">
-        <is>
-          <t>0723456789</t>
-        </is>
-      </c>
-      <c r="AN6" s="5" t="inlineStr">
-        <is>
-          <t>0912234567</t>
-        </is>
-      </c>
-      <c r="AO6" s="5" t="inlineStr">
-        <is>
-          <t>VISA GOLD</t>
-        </is>
-      </c>
-      <c r="AP6" s="5" t="inlineStr">
-        <is>
-          <t>4532********1234</t>
-        </is>
-      </c>
-      <c r="AQ6" s="5" t="inlineStr">
-        <is>
-          <t>4532********5678</t>
-        </is>
-      </c>
-      <c r="AR6" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AS6" s="5" t="inlineStr">
-        <is>
-          <t>ACC123456789</t>
-        </is>
-      </c>
-      <c r="AT6" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AU6" s="5" t="inlineStr">
-        <is>
-          <t>PREMIUM</t>
-        </is>
-      </c>
-      <c r="AV6" s="5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AW6" s="5" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AX6" s="5" t="n">
-        <v>250000</v>
-      </c>
-      <c r="AY6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="AZ6" s="5" t="n">
-        <v>265000</v>
-      </c>
-      <c r="BA6" s="5" t="n">
-        <v>25000</v>
-      </c>
-      <c r="BB6" s="5" t="inlineStr">
-        <is>
-          <t>2023-01-15</t>
-        </is>
-      </c>
-      <c r="BC6" s="5" t="inlineStr"/>
-      <c r="BD6" s="5" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="BE6" s="5" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="BF6" s="5" t="inlineStr">
-        <is>
-          <t>Mary Doe</t>
-        </is>
-      </c>
-      <c r="BG6" s="5" t="inlineStr">
-        <is>
-          <t>Same as home</t>
-        </is>
-      </c>
-      <c r="BH6" s="5" t="inlineStr">
-        <is>
-          <t>Sister</t>
-        </is>
-      </c>
-      <c r="BI6" s="5" t="inlineStr">
-        <is>
-          <t>0771111111</t>
-        </is>
-      </c>
-      <c r="BJ6" s="5" t="inlineStr">
-        <is>
-          <t>0112222222</t>
-        </is>
-      </c>
-      <c r="BK6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Commercial Bank</t>
+          <t>COMBANK</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Credit Cards</t>
+          <t>CC987654321</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Alice Wilson</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -1187,245 +1018,170 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>567 Queen Street, Kandy</t>
+          <t>456 Second St, Kandy</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>0712345678</t>
+          <t>0759876543</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>0812345679</t>
+          <t>0812345678</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>CC002345678</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="n">
+      <c r="I7" s="5" t="n">
         <v>300000</v>
       </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>2021-03-20</t>
+        </is>
+      </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>2028-02-10</t>
-        </is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>15000</v>
       </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
-          <t>Engineer</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>Tech Solutions</t>
-        </is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>12000</v>
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
-          <t>789 Tech Park, Kandy</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
-          <t>0812233445</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr"/>
-      <c r="R7" s="5" t="inlineStr"/>
-      <c r="S7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>2025-07-10</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>12000</v>
-      </c>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>XYZ Corp</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>789 Office Ave, Kandy</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>0812223344</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr"/>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
+          <t>654 Sister St, Peradeniya</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>456789012V</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
+        <is>
+          <t>0773333333</t>
+        </is>
+      </c>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="5" t="inlineStr"/>
+      <c r="AD7" s="5" t="inlineStr"/>
+      <c r="AE7" s="5" t="inlineStr"/>
+      <c r="AF7" s="5" t="inlineStr"/>
+      <c r="AG7" s="5" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="AH7" s="5" t="inlineStr">
+        <is>
           <t>Kandy</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="AI7" s="5" t="inlineStr">
         <is>
           <t>Kandy Main</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AJ7" s="5" t="inlineStr">
         <is>
           <t>Kandy</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr">
-        <is>
-          <t>Kandy 20000</t>
-        </is>
-      </c>
-      <c r="AB7" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC7" s="5" t="inlineStr">
+      <c r="AK7" s="5" t="inlineStr">
+        <is>
+          <t>Kandy</t>
+        </is>
+      </c>
+      <c r="AL7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="5" t="inlineStr">
         <is>
           <t>Good customer</t>
         </is>
       </c>
-      <c r="AD7" s="5" t="inlineStr">
+      <c r="AN7" s="5" t="inlineStr">
         <is>
           <t>Regular payments</t>
         </is>
       </c>
-      <c r="AE7" s="5" t="inlineStr">
-        <is>
-          <t>Bob Wilson</t>
-        </is>
-      </c>
-      <c r="AF7" s="5" t="inlineStr">
-        <is>
-          <t>Same address</t>
-        </is>
-      </c>
-      <c r="AG7" s="5" t="inlineStr">
-        <is>
-          <t>345678901V</t>
-        </is>
-      </c>
-      <c r="AH7" s="5" t="inlineStr">
-        <is>
-          <t>0713456789</t>
-        </is>
-      </c>
-      <c r="AI7" s="5" t="inlineStr"/>
-      <c r="AJ7" s="5" t="inlineStr">
-        <is>
-          <t>Carol Smith</t>
-        </is>
-      </c>
-      <c r="AK7" s="5" t="inlineStr">
-        <is>
-          <t>123 Hill Road, Kandy</t>
-        </is>
-      </c>
-      <c r="AL7" s="5" t="inlineStr">
-        <is>
-          <t>567890123V</t>
-        </is>
-      </c>
-      <c r="AM7" s="5" t="inlineStr">
-        <is>
-          <t>0714567890</t>
-        </is>
-      </c>
-      <c r="AN7" s="5" t="inlineStr"/>
       <c r="AO7" s="5" t="inlineStr">
         <is>
-          <t>MASTERCARD PLATINUM</t>
+          <t>MasterCard</t>
         </is>
       </c>
       <c r="AP7" s="5" t="inlineStr">
         <is>
-          <t>5432********9876</t>
-        </is>
-      </c>
-      <c r="AQ7" s="5" t="inlineStr"/>
-      <c r="AR7" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AS7" s="5" t="inlineStr">
-        <is>
-          <t>ACC234567890</t>
-        </is>
-      </c>
-      <c r="AT7" s="5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AU7" s="5" t="inlineStr">
-        <is>
-          <t>GOLD</t>
-        </is>
-      </c>
-      <c r="AV7" s="5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AW7" s="5" t="n">
+          <t>****5678</t>
+        </is>
+      </c>
+      <c r="AQ7" s="5" t="inlineStr">
+        <is>
+          <t>ACC87654321</t>
+        </is>
+      </c>
+      <c r="AR7" s="5" t="n">
         <v>300000</v>
       </c>
-      <c r="AX7" s="5" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AY7" s="5" t="n">
+      <c r="AS7" s="5" t="n">
+        <v>85000</v>
+      </c>
+      <c r="AT7" s="5" t="n">
         <v>8000</v>
       </c>
-      <c r="AZ7" s="5" t="n">
-        <v>158000</v>
-      </c>
-      <c r="BA7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="BB7" s="5" t="inlineStr">
-        <is>
-          <t>2023-02-10</t>
-        </is>
-      </c>
-      <c r="BC7" s="5" t="inlineStr"/>
-      <c r="BD7" s="5" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="BE7" s="5" t="inlineStr">
-        <is>
-          <t>2025-08-20</t>
-        </is>
-      </c>
-      <c r="BF7" s="5" t="inlineStr"/>
-      <c r="BG7" s="5" t="inlineStr"/>
-      <c r="BH7" s="5" t="inlineStr"/>
-      <c r="BI7" s="5" t="inlineStr"/>
-      <c r="BJ7" s="5" t="inlineStr"/>
-      <c r="BK7" s="5" t="inlineStr"/>
+      <c r="AU7" s="5" t="n">
+        <v>93000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation sqref="D6:D1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid NIC Format" error="NIC must be 10-12 characters (e.g., 123456789V or 123456789012)" type="textLength" operator="between">
-      <formula1>10</formula1>
-      <formula2>12</formula2>
-    </dataValidation>
-    <dataValidation sqref="AR6:AR1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Card Status" error="Please select a valid card status" type="list">
-      <formula1>"ACTIVE,INACTIVE,CLOSED,BLOCKED"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>